--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H2">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I2">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J2">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N2">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O2">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P2">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q2">
-        <v>1.203617707538889</v>
+        <v>1.092063084757556</v>
       </c>
       <c r="R2">
-        <v>10.83255936785</v>
+        <v>9.828567762818002</v>
       </c>
       <c r="S2">
-        <v>0.001382035224374537</v>
+        <v>0.002707470437698157</v>
       </c>
       <c r="T2">
-        <v>0.001382035224374537</v>
+        <v>0.002707470437698156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H3">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I3">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J3">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>61.574391</v>
       </c>
       <c r="O3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q3">
-        <v>12.943580098506</v>
+        <v>5.260512312699</v>
       </c>
       <c r="R3">
-        <v>116.492220886554</v>
+        <v>47.344610814291</v>
       </c>
       <c r="S3">
-        <v>0.01486226358552519</v>
+        <v>0.01304199525885601</v>
       </c>
       <c r="T3">
-        <v>0.01486226358552519</v>
+        <v>0.013041995258856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H4">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I4">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J4">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N4">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O4">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P4">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q4">
-        <v>5.498609550438667</v>
+        <v>2.289041514896889</v>
       </c>
       <c r="R4">
-        <v>49.487485953948</v>
+        <v>20.601373634072</v>
       </c>
       <c r="S4">
-        <v>0.006313692492383795</v>
+        <v>0.005675049654867709</v>
       </c>
       <c r="T4">
-        <v>0.006313692492383796</v>
+        <v>0.005675049654867707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H5">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I5">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J5">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N5">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q5">
-        <v>13.214796346664</v>
+        <v>1.655180974291445</v>
       </c>
       <c r="R5">
-        <v>118.933167119976</v>
+        <v>14.896628768623</v>
       </c>
       <c r="S5">
-        <v>0.01517368340431757</v>
+        <v>0.004103566560836004</v>
       </c>
       <c r="T5">
-        <v>0.01517368340431757</v>
+        <v>0.004103566560836001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H6">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I6">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J6">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N6">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O6">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P6">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q6">
-        <v>1.035390072638</v>
+        <v>0.4994101700116667</v>
       </c>
       <c r="R6">
-        <v>9.318510653742001</v>
+        <v>4.494691530105</v>
       </c>
       <c r="S6">
-        <v>0.001188870471405218</v>
+        <v>0.001238150332581364</v>
       </c>
       <c r="T6">
-        <v>0.001188870471405218</v>
+        <v>0.001238150332581364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H7">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I7">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J7">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N7">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q7">
-        <v>7.493703845613334</v>
+        <v>1.251210726338222</v>
       </c>
       <c r="R7">
-        <v>67.44333461052</v>
+        <v>11.260896537044</v>
       </c>
       <c r="S7">
-        <v>0.008604528340518731</v>
+        <v>0.003102033298418512</v>
       </c>
       <c r="T7">
-        <v>0.008604528340518733</v>
+        <v>0.003102033298418511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H8">
         <v>19.486935</v>
       </c>
       <c r="I8">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J8">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N8">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O8">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P8">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q8">
-        <v>12.397533916625</v>
+        <v>27.67711623287</v>
       </c>
       <c r="R8">
-        <v>111.577805249625</v>
+        <v>249.0940460958301</v>
       </c>
       <c r="S8">
-        <v>0.0142352745899596</v>
+        <v>0.06861780701786775</v>
       </c>
       <c r="T8">
-        <v>0.0142352745899596</v>
+        <v>0.06861780701786774</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H9">
         <v>19.486935</v>
       </c>
       <c r="I9">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J9">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>61.574391</v>
       </c>
       <c r="O9">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P9">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q9">
         <v>133.321795009065</v>
@@ -1013,10 +1013,10 @@
         <v>1199.896155081585</v>
       </c>
       <c r="S9">
-        <v>0.1530846677689111</v>
+        <v>0.3305347682986954</v>
       </c>
       <c r="T9">
-        <v>0.1530846677689111</v>
+        <v>0.3305347682986952</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H10">
         <v>19.486935</v>
       </c>
       <c r="I10">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J10">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N10">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O10">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P10">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q10">
-        <v>56.63691882303</v>
+        <v>58.01319443348</v>
       </c>
       <c r="R10">
-        <v>509.7322694072701</v>
+        <v>522.11874990132</v>
       </c>
       <c r="S10">
-        <v>0.06503245700291402</v>
+        <v>0.1438277798392504</v>
       </c>
       <c r="T10">
-        <v>0.06503245700291403</v>
+        <v>0.1438277798392504</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H11">
         <v>19.486935</v>
       </c>
       <c r="I11">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J11">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N11">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O11">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P11">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q11">
-        <v>136.11538354986</v>
+        <v>41.948708688445</v>
       </c>
       <c r="R11">
-        <v>1225.03845194874</v>
+        <v>377.5383781960051</v>
       </c>
       <c r="S11">
-        <v>0.1562923621569259</v>
+        <v>0.1040003002196443</v>
       </c>
       <c r="T11">
-        <v>0.1562923621569259</v>
+        <v>0.1040003002196443</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H12">
         <v>19.486935</v>
       </c>
       <c r="I12">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J12">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N12">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O12">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P12">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q12">
-        <v>10.664751325995</v>
+        <v>12.656991630075</v>
       </c>
       <c r="R12">
-        <v>95.982761933955</v>
+        <v>113.912924670675</v>
       </c>
       <c r="S12">
-        <v>0.0122456340575597</v>
+        <v>0.03137953397282801</v>
       </c>
       <c r="T12">
-        <v>0.0122456340575597</v>
+        <v>0.031379533972828</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H13">
         <v>19.486935</v>
       </c>
       <c r="I13">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J13">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N13">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O13">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P13">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q13">
-        <v>77.1868401447</v>
+        <v>31.71053503046</v>
       </c>
       <c r="R13">
-        <v>694.6815613023</v>
+        <v>285.39481527414</v>
       </c>
       <c r="S13">
-        <v>0.08862858303760485</v>
+        <v>0.07861756097874388</v>
       </c>
       <c r="T13">
-        <v>0.08862858303760487</v>
+        <v>0.07861756097874384</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H14">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I14">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J14">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N14">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O14">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P14">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q14">
-        <v>11.67764431362222</v>
+        <v>7.688202175880446</v>
       </c>
       <c r="R14">
-        <v>105.0987988226</v>
+        <v>69.19381958292402</v>
       </c>
       <c r="S14">
-        <v>0.01340867260265152</v>
+        <v>0.01906078540770759</v>
       </c>
       <c r="T14">
-        <v>0.01340867260265152</v>
+        <v>0.01906078540770758</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H15">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I15">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J15">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>61.574391</v>
       </c>
       <c r="O15">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P15">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q15">
-        <v>125.580176819016</v>
+        <v>37.03438269568201</v>
       </c>
       <c r="R15">
-        <v>1130.221591371144</v>
+        <v>333.309444261138</v>
       </c>
       <c r="S15">
-        <v>0.1441954756564224</v>
+        <v>0.09181657884646803</v>
       </c>
       <c r="T15">
-        <v>0.1441954756564225</v>
+        <v>0.09181657884646799</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H16">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I16">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J16">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N16">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O16">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P16">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q16">
-        <v>53.34817371605867</v>
+        <v>16.11501588245511</v>
       </c>
       <c r="R16">
-        <v>480.1335634445281</v>
+        <v>145.035142942096</v>
       </c>
       <c r="S16">
-        <v>0.06125620682534098</v>
+        <v>0.03995275521511636</v>
       </c>
       <c r="T16">
-        <v>0.06125620682534099</v>
+        <v>0.03995275521511635</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H17">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I17">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J17">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N17">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O17">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P17">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q17">
-        <v>128.211549603104</v>
+        <v>11.65259236910156</v>
       </c>
       <c r="R17">
-        <v>1153.903946427936</v>
+        <v>104.873331321914</v>
       </c>
       <c r="S17">
-        <v>0.1472169083366596</v>
+        <v>0.02888940190565426</v>
       </c>
       <c r="T17">
-        <v>0.1472169083366596</v>
+        <v>0.02888940190565424</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H18">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I18">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J18">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N18">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O18">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P18">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q18">
-        <v>10.045479489368</v>
+        <v>3.515883294043333</v>
       </c>
       <c r="R18">
-        <v>90.40931540431201</v>
+        <v>31.64294964639</v>
       </c>
       <c r="S18">
-        <v>0.01153456484819118</v>
+        <v>0.008716666842678276</v>
       </c>
       <c r="T18">
-        <v>0.01153456484819118</v>
+        <v>0.008716666842678274</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H19">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I19">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J19">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N19">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O19">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P19">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q19">
-        <v>72.70481943941334</v>
+        <v>8.808612948265777</v>
       </c>
       <c r="R19">
-        <v>654.34337495472</v>
+        <v>79.27751653439199</v>
       </c>
       <c r="S19">
-        <v>0.08348217280096246</v>
+        <v>0.02183853614999671</v>
       </c>
       <c r="T19">
-        <v>0.0834821728009625</v>
+        <v>0.0218385361499967</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1665,10 +1665,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I20">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J20">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N20">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O20">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P20">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q20">
-        <v>0.04715557430833334</v>
+        <v>0.1052733809753334</v>
       </c>
       <c r="R20">
-        <v>0.424400168775</v>
+        <v>0.9474604287780002</v>
       </c>
       <c r="S20">
-        <v>5.414565132394578E-05</v>
+        <v>0.0002609964303761148</v>
       </c>
       <c r="T20">
-        <v>5.41456513239458E-05</v>
+        <v>0.0002609964303761148</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1727,10 +1727,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I21">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J21">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,10 +1745,10 @@
         <v>61.574391</v>
       </c>
       <c r="O21">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P21">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q21">
         <v>0.5071061594790001</v>
@@ -1757,10 +1757,10 @@
         <v>4.563955435311001</v>
       </c>
       <c r="S21">
-        <v>0.0005822767233379421</v>
+        <v>0.001257230424439123</v>
       </c>
       <c r="T21">
-        <v>0.0005822767233379422</v>
+        <v>0.001257230424439122</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1789,10 +1789,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I22">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J22">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N22">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O22">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P22">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q22">
-        <v>0.2154256202980001</v>
+        <v>0.2206604571013333</v>
       </c>
       <c r="R22">
-        <v>1.938830582682</v>
+        <v>1.985944113912</v>
       </c>
       <c r="S22">
-        <v>0.0002473591021632181</v>
+        <v>0.0005470669897274806</v>
       </c>
       <c r="T22">
-        <v>0.0002473591021632182</v>
+        <v>0.0005470669897274802</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1851,10 +1851,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I23">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J23">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N23">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O23">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P23">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q23">
-        <v>0.5177319236760001</v>
+        <v>0.1595571718536667</v>
       </c>
       <c r="R23">
-        <v>4.659587313084001</v>
+        <v>1.436014546683</v>
       </c>
       <c r="S23">
-        <v>0.0005944775910338648</v>
+        <v>0.0003955781785375821</v>
       </c>
       <c r="T23">
-        <v>0.0005944775910338649</v>
+        <v>0.0003955781785375819</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1913,10 +1913,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I24">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J24">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N24">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O24">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P24">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q24">
-        <v>0.040564718517</v>
+        <v>0.048142454245</v>
       </c>
       <c r="R24">
-        <v>0.365082466653</v>
+        <v>0.433282088205</v>
       </c>
       <c r="S24">
-        <v>4.657780415341778E-05</v>
+        <v>0.0001193559909549647</v>
       </c>
       <c r="T24">
-        <v>4.657780415341779E-05</v>
+        <v>0.0001193559909549646</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1975,10 +1975,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I25">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J25">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N25">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O25">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P25">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q25">
-        <v>0.2935898220200001</v>
+        <v>0.1206149949693333</v>
       </c>
       <c r="R25">
-        <v>2.64230839818</v>
+        <v>1.085534954724</v>
       </c>
       <c r="S25">
-        <v>0.0003371099253592374</v>
+        <v>0.0002990317480560937</v>
       </c>
       <c r="T25">
-        <v>0.0003371099253592375</v>
+        <v>0.0002990317480560936</v>
       </c>
     </row>
   </sheetData>
